--- a/SchedulingData/static7/pso/scheduling1_1.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_1.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>47.1</v>
+        <v>81.5</v>
       </c>
       <c r="E2" t="n">
-        <v>26.48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>72.09999999999999</v>
+        <v>75.58</v>
       </c>
       <c r="E3" t="n">
-        <v>26.92</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="4">
@@ -504,55 +504,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.8</v>
+        <v>68.42</v>
       </c>
       <c r="E4" t="n">
-        <v>26.22</v>
+        <v>26.308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72.09999999999999</v>
+        <v>75.58</v>
       </c>
       <c r="D5" t="n">
-        <v>113.04</v>
+        <v>134.94</v>
       </c>
       <c r="E5" t="n">
-        <v>23.956</v>
+        <v>21.316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>68.42</v>
       </c>
       <c r="D6" t="n">
-        <v>43.3</v>
+        <v>108.48</v>
       </c>
       <c r="E6" t="n">
-        <v>27.36</v>
+        <v>23.932</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>81.5</v>
       </c>
       <c r="D7" t="n">
-        <v>71.31999999999999</v>
+        <v>157.1</v>
       </c>
       <c r="E7" t="n">
-        <v>25.528</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43.3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>103.1</v>
+        <v>77.2</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="9">
@@ -599,74 +599,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47.1</v>
+        <v>134.94</v>
       </c>
       <c r="D9" t="n">
-        <v>101.04</v>
+        <v>193.44</v>
       </c>
       <c r="E9" t="n">
-        <v>22.216</v>
+        <v>17.596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>101.04</v>
+        <v>77.2</v>
       </c>
       <c r="D10" t="n">
-        <v>159.42</v>
+        <v>156.5</v>
       </c>
       <c r="E10" t="n">
-        <v>19.488</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44.8</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>120.56</v>
+        <v>38.24</v>
       </c>
       <c r="E11" t="n">
-        <v>22.244</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>159.42</v>
+        <v>38.24</v>
       </c>
       <c r="D12" t="n">
-        <v>205.04</v>
+        <v>99.44</v>
       </c>
       <c r="E12" t="n">
-        <v>16.056</v>
+        <v>23.356</v>
       </c>
     </row>
     <row r="13">
@@ -679,279 +679,279 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113.04</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>186.68</v>
+        <v>64.44</v>
       </c>
       <c r="E13" t="n">
-        <v>20.692</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>120.56</v>
+        <v>157.1</v>
       </c>
       <c r="D14" t="n">
-        <v>179.1</v>
+        <v>200.78</v>
       </c>
       <c r="E14" t="n">
-        <v>18.5</v>
+        <v>18.332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>186.68</v>
+        <v>156.5</v>
       </c>
       <c r="D15" t="n">
-        <v>233.6</v>
+        <v>202.12</v>
       </c>
       <c r="E15" t="n">
-        <v>17.62</v>
+        <v>17.168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>103.1</v>
+        <v>202.12</v>
       </c>
       <c r="D16" t="n">
-        <v>182.38</v>
+        <v>266.82</v>
       </c>
       <c r="E16" t="n">
-        <v>20.172</v>
+        <v>13.808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>233.6</v>
+        <v>193.44</v>
       </c>
       <c r="D17" t="n">
-        <v>284.16</v>
+        <v>250.34</v>
       </c>
       <c r="E17" t="n">
-        <v>13.204</v>
+        <v>14.516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>179.1</v>
+        <v>200.78</v>
       </c>
       <c r="D18" t="n">
-        <v>242.4</v>
+        <v>263.56</v>
       </c>
       <c r="E18" t="n">
-        <v>14.78</v>
+        <v>13.184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>64.44</v>
       </c>
       <c r="D19" t="n">
-        <v>59.6</v>
+        <v>110.94</v>
       </c>
       <c r="E19" t="n">
-        <v>26.22</v>
+        <v>23.216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>205.04</v>
+        <v>99.44</v>
       </c>
       <c r="D20" t="n">
-        <v>258.36</v>
+        <v>165.9</v>
       </c>
       <c r="E20" t="n">
-        <v>12.864</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>59.6</v>
+        <v>165.9</v>
       </c>
       <c r="D21" t="n">
-        <v>114.3</v>
+        <v>210.58</v>
       </c>
       <c r="E21" t="n">
-        <v>22.86</v>
+        <v>15.992</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>114.3</v>
+        <v>110.94</v>
       </c>
       <c r="D22" t="n">
-        <v>164.04</v>
+        <v>155.14</v>
       </c>
       <c r="E22" t="n">
-        <v>19.516</v>
+        <v>19.936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>164.04</v>
+        <v>263.56</v>
       </c>
       <c r="D23" t="n">
-        <v>209.2</v>
+        <v>311.88</v>
       </c>
       <c r="E23" t="n">
-        <v>17.14</v>
+        <v>9.992000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>71.31999999999999</v>
+        <v>108.48</v>
       </c>
       <c r="D24" t="n">
-        <v>116.64</v>
+        <v>150.64</v>
       </c>
       <c r="E24" t="n">
-        <v>22.616</v>
+        <v>21.336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>284.16</v>
+        <v>210.58</v>
       </c>
       <c r="D25" t="n">
-        <v>340.6</v>
+        <v>267.22</v>
       </c>
       <c r="E25" t="n">
-        <v>10.18</v>
+        <v>11.468</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>340.6</v>
+        <v>267.22</v>
       </c>
       <c r="D26" t="n">
-        <v>403.1</v>
+        <v>311.96</v>
       </c>
       <c r="E26" t="n">
-        <v>6.04</v>
+        <v>8.124000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>116.64</v>
+        <v>150.64</v>
       </c>
       <c r="D27" t="n">
-        <v>192.24</v>
+        <v>203.36</v>
       </c>
       <c r="E27" t="n">
-        <v>17.676</v>
+        <v>17.684</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>242.4</v>
+        <v>203.36</v>
       </c>
       <c r="D28" t="n">
-        <v>327.8</v>
+        <v>258.48</v>
       </c>
       <c r="E28" t="n">
-        <v>8.84</v>
+        <v>14.772</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>327.8</v>
+        <v>250.34</v>
       </c>
       <c r="D29" t="n">
-        <v>398.84</v>
+        <v>321.6</v>
       </c>
       <c r="E29" t="n">
-        <v>5.816</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="30">
@@ -998,74 +998,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>403.1</v>
+        <v>155.14</v>
       </c>
       <c r="D30" t="n">
-        <v>445.7</v>
+        <v>215.84</v>
       </c>
       <c r="E30" t="n">
-        <v>3.4</v>
+        <v>14.996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>209.2</v>
+        <v>258.48</v>
       </c>
       <c r="D31" t="n">
-        <v>273.46</v>
+        <v>316.54</v>
       </c>
       <c r="E31" t="n">
-        <v>12.824</v>
+        <v>11.076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>182.38</v>
+        <v>311.88</v>
       </c>
       <c r="D32" t="n">
-        <v>238.58</v>
+        <v>363.8</v>
       </c>
       <c r="E32" t="n">
-        <v>16.172</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>398.84</v>
+        <v>266.82</v>
       </c>
       <c r="D33" t="n">
-        <v>460.38</v>
+        <v>324.22</v>
       </c>
       <c r="E33" t="n">
-        <v>1.292</v>
+        <v>11.168</v>
       </c>
     </row>
     <row r="34">
@@ -1074,207 +1074,207 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>460.38</v>
+        <v>316.54</v>
       </c>
       <c r="D34" t="n">
-        <v>559.1</v>
+        <v>390.44</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>7.296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>192.24</v>
+        <v>324.22</v>
       </c>
       <c r="D35" t="n">
-        <v>256.6</v>
+        <v>394.48</v>
       </c>
       <c r="E35" t="n">
-        <v>14.82</v>
+        <v>6.752</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>238.58</v>
+        <v>321.6</v>
       </c>
       <c r="D36" t="n">
-        <v>300.08</v>
+        <v>411.9</v>
       </c>
       <c r="E36" t="n">
-        <v>12.652</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>256.6</v>
+        <v>311.96</v>
       </c>
       <c r="D37" t="n">
-        <v>319.86</v>
+        <v>400.56</v>
       </c>
       <c r="E37" t="n">
-        <v>11.124</v>
+        <v>4.344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>300.08</v>
+        <v>390.44</v>
       </c>
       <c r="D38" t="n">
-        <v>355.38</v>
+        <v>466.36</v>
       </c>
       <c r="E38" t="n">
-        <v>8.752000000000001</v>
+        <v>2.824</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>559.1</v>
+        <v>363.8</v>
       </c>
       <c r="D39" t="n">
-        <v>635.2</v>
+        <v>428.5</v>
       </c>
       <c r="E39" t="n">
-        <v>25.06</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>319.86</v>
+        <v>215.84</v>
       </c>
       <c r="D40" t="n">
-        <v>389.54</v>
+        <v>283.34</v>
       </c>
       <c r="E40" t="n">
-        <v>6.756</v>
+        <v>10.856</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>273.46</v>
+        <v>283.34</v>
       </c>
       <c r="D41" t="n">
-        <v>355.36</v>
+        <v>336.98</v>
       </c>
       <c r="E41" t="n">
-        <v>8.744</v>
+        <v>7.112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>635.2</v>
+        <v>336.98</v>
       </c>
       <c r="D42" t="n">
-        <v>718</v>
+        <v>402.18</v>
       </c>
       <c r="E42" t="n">
-        <v>20.9</v>
+        <v>3.212</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>445.7</v>
+        <v>466.36</v>
       </c>
       <c r="D43" t="n">
-        <v>486.12</v>
+        <v>552.3099999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.488</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>486.12</v>
+        <v>552.3099999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>561.9400000000001</v>
+        <v>611.95</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="45">
@@ -1283,90 +1283,90 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>389.54</v>
+        <v>428.5</v>
       </c>
       <c r="D45" t="n">
-        <v>438.74</v>
+        <v>529.1</v>
       </c>
       <c r="E45" t="n">
-        <v>3.476</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>355.36</v>
+        <v>529.1</v>
       </c>
       <c r="D46" t="n">
-        <v>418.28</v>
+        <v>608.84</v>
       </c>
       <c r="E46" t="n">
-        <v>5.092</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>258.36</v>
+        <v>611.95</v>
       </c>
       <c r="D47" t="n">
-        <v>326.24</v>
+        <v>677.99</v>
       </c>
       <c r="E47" t="n">
-        <v>7.716</v>
+        <v>22.712</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>355.38</v>
+        <v>411.9</v>
       </c>
       <c r="D48" t="n">
-        <v>418.5</v>
+        <v>487.12</v>
       </c>
       <c r="E48" t="n">
-        <v>5.06</v>
+        <v>4.148</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>438.74</v>
+        <v>402.18</v>
       </c>
       <c r="D49" t="n">
-        <v>503.69</v>
+        <v>477.46</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -1374,78 +1374,78 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>503.69</v>
+        <v>477.46</v>
       </c>
       <c r="D50" t="n">
-        <v>559.29</v>
+        <v>542.76</v>
       </c>
       <c r="E50" t="n">
-        <v>25.14</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>326.24</v>
+        <v>400.56</v>
       </c>
       <c r="D51" t="n">
-        <v>383.4</v>
+        <v>468.87</v>
       </c>
       <c r="E51" t="n">
-        <v>5.12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>561.9400000000001</v>
+        <v>468.87</v>
       </c>
       <c r="D52" t="n">
-        <v>636.84</v>
+        <v>540.27</v>
       </c>
       <c r="E52" t="n">
-        <v>27.64</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>559.29</v>
+        <v>487.12</v>
       </c>
       <c r="D53" t="n">
-        <v>620.85</v>
+        <v>542.76</v>
       </c>
       <c r="E53" t="n">
-        <v>21.604</v>
+        <v>1.184</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>383.4</v>
+        <v>542.76</v>
       </c>
       <c r="D54" t="n">
-        <v>463.7</v>
+        <v>636.79</v>
       </c>
       <c r="E54" t="n">
-        <v>2.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1473,90 +1473,90 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>418.28</v>
+        <v>394.48</v>
       </c>
       <c r="D55" t="n">
-        <v>509.5</v>
+        <v>444.78</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
+        <v>3.832</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>509.5</v>
+        <v>542.76</v>
       </c>
       <c r="D56" t="n">
-        <v>584.4</v>
+        <v>610.36</v>
       </c>
       <c r="E56" t="n">
-        <v>24.68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>584.4</v>
+        <v>540.27</v>
       </c>
       <c r="D57" t="n">
-        <v>631.42</v>
+        <v>611.03</v>
       </c>
       <c r="E57" t="n">
-        <v>21.608</v>
+        <v>20.084</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>418.5</v>
+        <v>636.79</v>
       </c>
       <c r="D58" t="n">
-        <v>475.06</v>
+        <v>706.75</v>
       </c>
       <c r="E58" t="n">
-        <v>1.524</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>475.06</v>
+        <v>444.78</v>
       </c>
       <c r="D59" t="n">
-        <v>573.3099999999999</v>
+        <v>548.42</v>
       </c>
       <c r="E59" t="n">
         <v>30</v>
@@ -1564,78 +1564,78 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>620.85</v>
+        <v>548.42</v>
       </c>
       <c r="D60" t="n">
-        <v>698.29</v>
+        <v>604.02</v>
       </c>
       <c r="E60" t="n">
-        <v>18.48</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>636.84</v>
+        <v>608.84</v>
       </c>
       <c r="D61" t="n">
-        <v>722.24</v>
+        <v>675.48</v>
       </c>
       <c r="E61" t="n">
-        <v>23.72</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>463.7</v>
+        <v>610.36</v>
       </c>
       <c r="D62" t="n">
-        <v>570.6</v>
+        <v>662.1799999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>20.928</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>570.6</v>
+        <v>611.03</v>
       </c>
       <c r="D63" t="n">
-        <v>627.3</v>
+        <v>673.9299999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>26.52</v>
+        <v>15.924</v>
       </c>
     </row>
   </sheetData>
